--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexandra.veizu\Documents\Reframework_update_UiPath_Services\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravi.puvvula\Documents\UiPath\RPA-BMICalculator\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE7DFF5-5AFC-4110-8461-609B0BDD5551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF76F14-189B-48D0-8555-18CF2E6B0DEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -90,10 +90,6 @@
     <t>Framework</t>
   </si>
   <si>
-    <t>ProcessABCQueue</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -122,6 +118,9 @@
   </si>
   <si>
     <t>OrchestratorAssetFolder</t>
+  </si>
+  <si>
+    <t>RPAChallenge</t>
   </si>
 </sst>
 </file>
@@ -173,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -182,6 +181,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z997"/>
+  <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -547,27 +549,27 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:26" ht="30">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="30">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1560,7 +1562,6 @@
     <row r="994" ht="14.25" customHeight="1"/>
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1572,7 +1573,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1620,11 +1623,11 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" s="5">
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1648,7 +1651,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -1670,7 +1673,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -1681,7 +1684,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1692,7 +1695,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2675,6 +2678,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2683,7 +2687,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2702,7 +2706,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -3732,5 +3736,6 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>